--- a/SoilProfiles.xlsx
+++ b/SoilProfiles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\PhD Work Space\Site Response\EzBridge Workspace\Multi-Support Excitation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\EzBridge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597B943D-5CB1-43CF-966C-FE608F3F5487}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0ABC45-D8FA-4A23-83C9-EABA566B141C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10050" yWindow="2280" windowWidth="21600" windowHeight="11385" xr2:uid="{C2E34624-011A-4C33-BF47-C2771140961F}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{C2E34624-011A-4C33-BF47-C2771140961F}"/>
   </bookViews>
   <sheets>
     <sheet name="Bent1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="12">
   <si>
     <t>Layer ID</t>
   </si>
@@ -473,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41926604-65C2-4251-A550-2747A24C24CE}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,7 +582,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A23" si="1">A3+1</f>
+        <f t="shared" ref="A4:A21" si="1">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="2">
@@ -594,8 +594,8 @@
       <c r="D4" s="2">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
+      <c r="E4" s="2">
+        <v>37</v>
       </c>
       <c r="F4" s="2">
         <v>156</v>
@@ -625,8 +625,8 @@
       <c r="D5" s="2">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
+      <c r="E5" s="2">
+        <v>37</v>
       </c>
       <c r="F5" s="2">
         <v>156</v>
@@ -656,8 +656,8 @@
       <c r="D6" s="2">
         <v>18</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>6</v>
+      <c r="E6" s="2">
+        <v>37</v>
       </c>
       <c r="F6" s="2">
         <v>156</v>
@@ -687,8 +687,8 @@
       <c r="D7" s="2">
         <v>18</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>6</v>
+      <c r="E7" s="2">
+        <v>37</v>
       </c>
       <c r="F7" s="2">
         <v>156</v>
@@ -718,8 +718,8 @@
       <c r="D8" s="2">
         <v>18</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>6</v>
+      <c r="E8" s="2">
+        <v>37</v>
       </c>
       <c r="F8" s="2">
         <v>156</v>
@@ -749,8 +749,8 @@
       <c r="D9" s="2">
         <v>18</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>6</v>
+      <c r="E9" s="2">
+        <v>37</v>
       </c>
       <c r="F9" s="2">
         <v>156</v>
@@ -780,8 +780,8 @@
       <c r="D10" s="2">
         <v>18</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>6</v>
+      <c r="E10" s="2">
+        <v>37</v>
       </c>
       <c r="F10" s="2">
         <v>156</v>
@@ -811,8 +811,8 @@
       <c r="D11" s="2">
         <v>18</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>6</v>
+      <c r="E11" s="2">
+        <v>37</v>
       </c>
       <c r="F11" s="2">
         <v>156</v>
@@ -842,8 +842,8 @@
       <c r="D12" s="2">
         <v>18</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>6</v>
+      <c r="E12" s="2">
+        <v>37</v>
       </c>
       <c r="F12" s="2">
         <v>156</v>
@@ -873,8 +873,8 @@
       <c r="D13" s="2">
         <v>18</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>6</v>
+      <c r="E13" s="2">
+        <v>37</v>
       </c>
       <c r="F13" s="2">
         <v>156</v>
@@ -904,8 +904,8 @@
       <c r="D14" s="2">
         <v>18</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>6</v>
+      <c r="E14" s="2">
+        <v>37</v>
       </c>
       <c r="F14" s="2">
         <v>156</v>
@@ -935,8 +935,8 @@
       <c r="D15" s="2">
         <v>18</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>6</v>
+      <c r="E15" s="2">
+        <v>37</v>
       </c>
       <c r="F15" s="2">
         <v>156</v>

--- a/SoilProfiles.xlsx
+++ b/SoilProfiles.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\EzBridge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Volkan\Desktop\Workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0ABC45-D8FA-4A23-83C9-EABA566B141C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D311BAC-415D-4965-ACA1-7EB843447A68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{C2E34624-011A-4C33-BF47-C2771140961F}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{C2E34624-011A-4C33-BF47-C2771140961F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bent1" sheetId="1" r:id="rId1"/>
-    <sheet name="Help" sheetId="2" r:id="rId2"/>
+    <sheet name="Abutment1" sheetId="9" r:id="rId1"/>
+    <sheet name="Abutment2" sheetId="10" r:id="rId2"/>
+    <sheet name="Bent1" sheetId="1" r:id="rId3"/>
+    <sheet name="Bent2" sheetId="3" r:id="rId4"/>
+    <sheet name="Bent3" sheetId="5" r:id="rId5"/>
+    <sheet name="Bent4" sheetId="6" r:id="rId6"/>
+    <sheet name="Bent5" sheetId="7" r:id="rId7"/>
+    <sheet name="Bent6" sheetId="8" r:id="rId8"/>
+    <sheet name="Help" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="12">
   <si>
     <t>Layer ID</t>
   </si>
@@ -470,11 +477,1337 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944B823D-F93F-4259-81AD-AB6D0E28DB4B}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2">
+        <v>37</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2">
+        <v>100</v>
+      </c>
+      <c r="I2" s="2">
+        <f t="shared" ref="I2:I21" si="0">H2^2*D2/9.81</f>
+        <v>18348.623853211007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2">
+        <v>100</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" si="0"/>
+        <v>18348.623853211007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A21" si="1">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2">
+        <v>37</v>
+      </c>
+      <c r="F4" s="2">
+        <v>156</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H4" s="2">
+        <v>200</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>73394.495412844029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2">
+        <v>156</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H5" s="2">
+        <v>200</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>73394.495412844029</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2">
+        <v>156</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H6" s="2">
+        <v>200</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>73394.495412844029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2">
+        <v>37</v>
+      </c>
+      <c r="F7" s="2">
+        <v>156</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H7" s="2">
+        <v>200</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>73394.495412844029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2">
+        <v>156</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H8" s="2">
+        <v>235</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2">
+        <v>37</v>
+      </c>
+      <c r="F9" s="2">
+        <v>156</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H9" s="2">
+        <v>235</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2">
+        <v>37</v>
+      </c>
+      <c r="F10" s="2">
+        <v>156</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H10" s="2">
+        <v>235</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2">
+        <v>37</v>
+      </c>
+      <c r="F11" s="2">
+        <v>156</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H11" s="2">
+        <v>235</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2">
+        <v>37</v>
+      </c>
+      <c r="F12" s="2">
+        <v>156</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H12" s="2">
+        <v>235</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2">
+        <v>37</v>
+      </c>
+      <c r="F13" s="2">
+        <v>156</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H13" s="2">
+        <v>235</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2">
+        <v>37</v>
+      </c>
+      <c r="F14" s="2">
+        <v>156</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H14" s="2">
+        <v>235</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2">
+        <v>37</v>
+      </c>
+      <c r="F15" s="2">
+        <v>156</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H15" s="2">
+        <v>235</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2">
+        <v>37</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="2">
+        <v>400</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2">
+        <v>37</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="2">
+        <v>400</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2">
+        <v>18</v>
+      </c>
+      <c r="E18" s="2">
+        <v>37</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="2">
+        <v>400</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2">
+        <v>37</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="2">
+        <v>400</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2">
+        <v>18</v>
+      </c>
+      <c r="E20" s="2">
+        <v>37</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="2">
+        <v>400</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2">
+        <v>18</v>
+      </c>
+      <c r="E21" s="2">
+        <v>37</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="2">
+        <v>400</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937DA387-B77B-4523-9A74-BD175C23D794}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2">
+        <v>37</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2">
+        <v>100</v>
+      </c>
+      <c r="I2" s="2">
+        <f t="shared" ref="I2:I21" si="0">H2^2*D2/9.81</f>
+        <v>18348.623853211007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2">
+        <v>100</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" si="0"/>
+        <v>18348.623853211007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A21" si="1">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2">
+        <v>37</v>
+      </c>
+      <c r="F4" s="2">
+        <v>156</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H4" s="2">
+        <v>200</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>73394.495412844029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2">
+        <v>156</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H5" s="2">
+        <v>200</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>73394.495412844029</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2">
+        <v>156</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H6" s="2">
+        <v>200</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>73394.495412844029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2">
+        <v>37</v>
+      </c>
+      <c r="F7" s="2">
+        <v>156</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H7" s="2">
+        <v>200</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>73394.495412844029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2">
+        <v>156</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H8" s="2">
+        <v>235</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2">
+        <v>37</v>
+      </c>
+      <c r="F9" s="2">
+        <v>156</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H9" s="2">
+        <v>235</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2">
+        <v>37</v>
+      </c>
+      <c r="F10" s="2">
+        <v>156</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H10" s="2">
+        <v>235</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2">
+        <v>37</v>
+      </c>
+      <c r="F11" s="2">
+        <v>156</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H11" s="2">
+        <v>235</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2">
+        <v>37</v>
+      </c>
+      <c r="F12" s="2">
+        <v>156</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H12" s="2">
+        <v>235</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2">
+        <v>37</v>
+      </c>
+      <c r="F13" s="2">
+        <v>156</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H13" s="2">
+        <v>235</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2">
+        <v>37</v>
+      </c>
+      <c r="F14" s="2">
+        <v>156</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H14" s="2">
+        <v>235</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2">
+        <v>37</v>
+      </c>
+      <c r="F15" s="2">
+        <v>156</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H15" s="2">
+        <v>235</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2">
+        <v>37</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="2">
+        <v>400</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2">
+        <v>37</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="2">
+        <v>400</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2">
+        <v>18</v>
+      </c>
+      <c r="E18" s="2">
+        <v>37</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="2">
+        <v>400</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2">
+        <v>37</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="2">
+        <v>400</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2">
+        <v>18</v>
+      </c>
+      <c r="E20" s="2">
+        <v>37</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="2">
+        <v>400</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2">
+        <v>18</v>
+      </c>
+      <c r="E21" s="2">
+        <v>37</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="2">
+        <v>400</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41926604-65C2-4251-A550-2747A24C24CE}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,11 +1875,11 @@
         <v>6</v>
       </c>
       <c r="H2" s="2">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" ref="I2:I3" si="0">H2^2*D2/9.81</f>
-        <v>293577.98165137612</v>
+        <v>18348.623853211007</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -573,11 +1906,11 @@
         <v>6</v>
       </c>
       <c r="H3" s="2">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="0"/>
-        <v>293577.98165137612</v>
+        <v>18348.623853211007</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1166,7 +2499,3390 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529D814F-F9AB-4B9B-9FFD-E13E712546A2}">
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C4:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="36.42578125" customWidth="1"/>
+    <col min="12" max="12" width="34.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2">
+        <v>37</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2">
+        <v>100</v>
+      </c>
+      <c r="I2" s="2">
+        <f t="shared" ref="I2:I21" si="0">H2^2*D2/9.81</f>
+        <v>18348.623853211007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2">
+        <v>100</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" si="0"/>
+        <v>18348.623853211007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A21" si="1">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2">
+        <v>37</v>
+      </c>
+      <c r="F4" s="2">
+        <v>156</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H4" s="2">
+        <v>200</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>73394.495412844029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2">
+        <v>156</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H5" s="2">
+        <v>200</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>73394.495412844029</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2">
+        <v>156</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H6" s="2">
+        <v>200</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>73394.495412844029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2">
+        <v>37</v>
+      </c>
+      <c r="F7" s="2">
+        <v>156</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H7" s="2">
+        <v>200</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>73394.495412844029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2">
+        <v>156</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H8" s="2">
+        <v>235</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2">
+        <v>37</v>
+      </c>
+      <c r="F9" s="2">
+        <v>156</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H9" s="2">
+        <v>235</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2">
+        <v>37</v>
+      </c>
+      <c r="F10" s="2">
+        <v>156</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H10" s="2">
+        <v>235</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2">
+        <v>37</v>
+      </c>
+      <c r="F11" s="2">
+        <v>156</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H11" s="2">
+        <v>235</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2">
+        <v>37</v>
+      </c>
+      <c r="F12" s="2">
+        <v>156</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H12" s="2">
+        <v>235</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2">
+        <v>37</v>
+      </c>
+      <c r="F13" s="2">
+        <v>156</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H13" s="2">
+        <v>235</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2">
+        <v>37</v>
+      </c>
+      <c r="F14" s="2">
+        <v>156</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H14" s="2">
+        <v>235</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2">
+        <v>37</v>
+      </c>
+      <c r="F15" s="2">
+        <v>156</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H15" s="2">
+        <v>235</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2">
+        <v>37</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="2">
+        <v>400</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2">
+        <v>37</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="2">
+        <v>400</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2">
+        <v>18</v>
+      </c>
+      <c r="E18" s="2">
+        <v>37</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="2">
+        <v>400</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2">
+        <v>37</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="2">
+        <v>400</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2">
+        <v>18</v>
+      </c>
+      <c r="E20" s="2">
+        <v>37</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="2">
+        <v>400</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2">
+        <v>18</v>
+      </c>
+      <c r="E21" s="2">
+        <v>37</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="2">
+        <v>400</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1E1B47-14B4-4558-8627-E76DC21FD11A}">
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C4:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="36.42578125" customWidth="1"/>
+    <col min="12" max="12" width="34.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2">
+        <v>37</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2">
+        <v>100</v>
+      </c>
+      <c r="I2" s="2">
+        <f t="shared" ref="I2:I21" si="0">H2^2*D2/9.81</f>
+        <v>18348.623853211007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2">
+        <v>100</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" si="0"/>
+        <v>18348.623853211007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A21" si="1">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2">
+        <v>37</v>
+      </c>
+      <c r="F4" s="2">
+        <v>156</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H4" s="2">
+        <v>200</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>73394.495412844029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2">
+        <v>156</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H5" s="2">
+        <v>200</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>73394.495412844029</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2">
+        <v>156</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H6" s="2">
+        <v>200</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>73394.495412844029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2">
+        <v>37</v>
+      </c>
+      <c r="F7" s="2">
+        <v>156</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H7" s="2">
+        <v>200</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>73394.495412844029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2">
+        <v>156</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H8" s="2">
+        <v>235</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2">
+        <v>37</v>
+      </c>
+      <c r="F9" s="2">
+        <v>156</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H9" s="2">
+        <v>235</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2">
+        <v>37</v>
+      </c>
+      <c r="F10" s="2">
+        <v>156</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H10" s="2">
+        <v>235</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2">
+        <v>37</v>
+      </c>
+      <c r="F11" s="2">
+        <v>156</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H11" s="2">
+        <v>235</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2">
+        <v>37</v>
+      </c>
+      <c r="F12" s="2">
+        <v>156</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H12" s="2">
+        <v>235</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2">
+        <v>37</v>
+      </c>
+      <c r="F13" s="2">
+        <v>156</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H13" s="2">
+        <v>235</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2">
+        <v>37</v>
+      </c>
+      <c r="F14" s="2">
+        <v>156</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H14" s="2">
+        <v>235</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2">
+        <v>37</v>
+      </c>
+      <c r="F15" s="2">
+        <v>156</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H15" s="2">
+        <v>235</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2">
+        <v>37</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="2">
+        <v>400</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2">
+        <v>37</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="2">
+        <v>400</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2">
+        <v>18</v>
+      </c>
+      <c r="E18" s="2">
+        <v>37</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="2">
+        <v>400</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2">
+        <v>37</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="2">
+        <v>400</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2">
+        <v>18</v>
+      </c>
+      <c r="E20" s="2">
+        <v>37</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="2">
+        <v>400</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2">
+        <v>18</v>
+      </c>
+      <c r="E21" s="2">
+        <v>37</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="2">
+        <v>400</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC3763E-4F51-4FF4-A481-042C3CD81C8A}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C4:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2">
+        <v>37</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2">
+        <v>100</v>
+      </c>
+      <c r="I2" s="2">
+        <f t="shared" ref="I2:I21" si="0">H2^2*D2/9.81</f>
+        <v>18348.623853211007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2">
+        <v>100</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" si="0"/>
+        <v>18348.623853211007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A21" si="1">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2">
+        <v>37</v>
+      </c>
+      <c r="F4" s="2">
+        <v>156</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H4" s="2">
+        <v>200</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>73394.495412844029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2">
+        <v>156</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H5" s="2">
+        <v>200</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>73394.495412844029</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2">
+        <v>156</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H6" s="2">
+        <v>200</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>73394.495412844029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2">
+        <v>37</v>
+      </c>
+      <c r="F7" s="2">
+        <v>156</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H7" s="2">
+        <v>200</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>73394.495412844029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2">
+        <v>156</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H8" s="2">
+        <v>235</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2">
+        <v>37</v>
+      </c>
+      <c r="F9" s="2">
+        <v>156</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H9" s="2">
+        <v>235</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2">
+        <v>37</v>
+      </c>
+      <c r="F10" s="2">
+        <v>156</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H10" s="2">
+        <v>235</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2">
+        <v>37</v>
+      </c>
+      <c r="F11" s="2">
+        <v>156</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H11" s="2">
+        <v>235</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2">
+        <v>37</v>
+      </c>
+      <c r="F12" s="2">
+        <v>156</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H12" s="2">
+        <v>235</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2">
+        <v>37</v>
+      </c>
+      <c r="F13" s="2">
+        <v>156</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H13" s="2">
+        <v>235</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2">
+        <v>37</v>
+      </c>
+      <c r="F14" s="2">
+        <v>156</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H14" s="2">
+        <v>235</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2">
+        <v>37</v>
+      </c>
+      <c r="F15" s="2">
+        <v>156</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H15" s="2">
+        <v>235</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2">
+        <v>37</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="2">
+        <v>400</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2">
+        <v>37</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="2">
+        <v>400</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2">
+        <v>18</v>
+      </c>
+      <c r="E18" s="2">
+        <v>37</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="2">
+        <v>400</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2">
+        <v>37</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="2">
+        <v>400</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2">
+        <v>18</v>
+      </c>
+      <c r="E20" s="2">
+        <v>37</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="2">
+        <v>400</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2">
+        <v>18</v>
+      </c>
+      <c r="E21" s="2">
+        <v>37</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="2">
+        <v>400</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB6DC86-156E-4C22-A4E3-49048187AA2A}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C4:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2">
+        <v>37</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2">
+        <v>100</v>
+      </c>
+      <c r="I2" s="2">
+        <f t="shared" ref="I2:I21" si="0">H2^2*D2/9.81</f>
+        <v>18348.623853211007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2">
+        <v>100</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" si="0"/>
+        <v>18348.623853211007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A21" si="1">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2">
+        <v>37</v>
+      </c>
+      <c r="F4" s="2">
+        <v>156</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H4" s="2">
+        <v>200</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>73394.495412844029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2">
+        <v>156</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H5" s="2">
+        <v>200</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>73394.495412844029</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2">
+        <v>156</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H6" s="2">
+        <v>200</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>73394.495412844029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2">
+        <v>37</v>
+      </c>
+      <c r="F7" s="2">
+        <v>156</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H7" s="2">
+        <v>200</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>73394.495412844029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2">
+        <v>156</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H8" s="2">
+        <v>235</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2">
+        <v>37</v>
+      </c>
+      <c r="F9" s="2">
+        <v>156</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H9" s="2">
+        <v>235</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2">
+        <v>37</v>
+      </c>
+      <c r="F10" s="2">
+        <v>156</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H10" s="2">
+        <v>235</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2">
+        <v>37</v>
+      </c>
+      <c r="F11" s="2">
+        <v>156</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H11" s="2">
+        <v>235</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2">
+        <v>37</v>
+      </c>
+      <c r="F12" s="2">
+        <v>156</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H12" s="2">
+        <v>235</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2">
+        <v>37</v>
+      </c>
+      <c r="F13" s="2">
+        <v>156</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H13" s="2">
+        <v>235</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2">
+        <v>37</v>
+      </c>
+      <c r="F14" s="2">
+        <v>156</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H14" s="2">
+        <v>235</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2">
+        <v>37</v>
+      </c>
+      <c r="F15" s="2">
+        <v>156</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H15" s="2">
+        <v>235</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2">
+        <v>37</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="2">
+        <v>400</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2">
+        <v>37</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="2">
+        <v>400</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2">
+        <v>18</v>
+      </c>
+      <c r="E18" s="2">
+        <v>37</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="2">
+        <v>400</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2">
+        <v>37</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="2">
+        <v>400</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2">
+        <v>18</v>
+      </c>
+      <c r="E20" s="2">
+        <v>37</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="2">
+        <v>400</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2">
+        <v>18</v>
+      </c>
+      <c r="E21" s="2">
+        <v>37</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="2">
+        <v>400</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28091C8-1BC8-46BB-8853-70BA8447BAC5}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C4:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2">
+        <v>37</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2">
+        <v>100</v>
+      </c>
+      <c r="I2" s="2">
+        <f t="shared" ref="I2:I21" si="0">H2^2*D2/9.81</f>
+        <v>18348.623853211007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2">
+        <v>100</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" si="0"/>
+        <v>18348.623853211007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A21" si="1">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2">
+        <v>37</v>
+      </c>
+      <c r="F4" s="2">
+        <v>156</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H4" s="2">
+        <v>200</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>73394.495412844029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2">
+        <v>156</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H5" s="2">
+        <v>200</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>73394.495412844029</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2">
+        <v>156</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H6" s="2">
+        <v>200</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>73394.495412844029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2">
+        <v>37</v>
+      </c>
+      <c r="F7" s="2">
+        <v>156</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H7" s="2">
+        <v>200</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>73394.495412844029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2">
+        <v>156</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H8" s="2">
+        <v>235</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2">
+        <v>37</v>
+      </c>
+      <c r="F9" s="2">
+        <v>156</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H9" s="2">
+        <v>235</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2">
+        <v>37</v>
+      </c>
+      <c r="F10" s="2">
+        <v>156</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H10" s="2">
+        <v>235</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2">
+        <v>37</v>
+      </c>
+      <c r="F11" s="2">
+        <v>156</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H11" s="2">
+        <v>235</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2">
+        <v>37</v>
+      </c>
+      <c r="F12" s="2">
+        <v>156</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H12" s="2">
+        <v>235</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2">
+        <v>37</v>
+      </c>
+      <c r="F13" s="2">
+        <v>156</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H13" s="2">
+        <v>235</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2">
+        <v>37</v>
+      </c>
+      <c r="F14" s="2">
+        <v>156</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H14" s="2">
+        <v>235</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2">
+        <v>37</v>
+      </c>
+      <c r="F15" s="2">
+        <v>156</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H15" s="2">
+        <v>235</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>101330.27522935779</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2">
+        <v>37</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="2">
+        <v>400</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2">
+        <v>37</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="2">
+        <v>400</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2">
+        <v>18</v>
+      </c>
+      <c r="E18" s="2">
+        <v>37</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="2">
+        <v>400</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2">
+        <v>37</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="2">
+        <v>400</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2">
+        <v>18</v>
+      </c>
+      <c r="E20" s="2">
+        <v>37</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="2">
+        <v>400</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2">
+        <v>18</v>
+      </c>
+      <c r="E21" s="2">
+        <v>37</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="2">
+        <v>400</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="0"/>
+        <v>293577.98165137612</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9C7ACA-B127-485A-B0A3-AB3549152FC4}">
   <dimension ref="A1"/>
   <sheetViews>
